--- a/telefon/gotowe_fony.xlsx
+++ b/telefon/gotowe_fony.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -485,6 +485,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -503,16 +513,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -818,16 +818,16 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="178.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="178.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -841,7 +841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -855,7 +855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -869,7 +869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -877,81 +877,81 @@
         <v>21</v>
       </c>
       <c r="C4" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="11">
         <v>24</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="12" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="11">
         <v>21</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -965,7 +965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -979,7 +979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -993,7 +993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1077,37 +1077,37 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="11">
         <v>13</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="11" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1205,37 +1205,37 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="11">
         <v>62</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="11" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1243,13 +1243,13 @@
         <v>59</v>
       </c>
       <c r="C34" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1305,29 +1305,29 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="11">
         <v>4</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="11" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -1589,17 +1589,23 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="13" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C61" s="14">
+      <c r="C61" s="8">
         <f>SUM(C2:C59)</f>
-        <v>650</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
@@ -1609,12 +1615,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -1632,7 +1632,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1644,7 +1644,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/telefon/gotowe_fony.xlsx
+++ b/telefon/gotowe_fony.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -243,9 +243,6 @@
     <t>Xiaomi</t>
   </si>
   <si>
-    <t>http://webcazine.com/10104/how-to-reset-all-settings-to-factory-default-on-xiaomi-redmi/</t>
-  </si>
-  <si>
     <t>http://forum.gsmhosting.com/vbb/f838/xolo-a500-hard-reset-1647131/ Android</t>
   </si>
   <si>
@@ -349,6 +346,9 @@
   </si>
   <si>
     <t>Suma fonów:</t>
+  </si>
+  <si>
+    <t>tablet został</t>
   </si>
 </sst>
 </file>
@@ -817,17 +817,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="178.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="178.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -841,7 +841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -855,7 +855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -869,7 +869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -883,7 +883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -897,7 +897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -905,7 +905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -919,7 +919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -927,7 +927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -935,7 +935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -943,7 +943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -951,7 +951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -965,7 +965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -979,7 +979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -993,7 +993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -1099,7 +1099,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -1107,7 +1107,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -1227,7 +1227,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1235,7 +1235,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -1327,7 +1327,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1349,263 +1349,257 @@
         <v>74</v>
       </c>
       <c r="C42" s="3">
-        <v>5</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="3">
         <v>12</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="3">
         <v>5</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="3">
         <v>19</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="3">
         <v>2</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48" s="3">
         <v>2</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C52" s="3">
         <v>11</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" s="3">
         <v>8</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" s="3">
         <v>172</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C55" s="3">
         <v>40</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C57" s="3">
         <v>25</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="3">
-        <v>4</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="7" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="C61" s="8">
         <f>SUM(C2:C59)</f>
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
@@ -1615,14 +1609,21 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D5" r:id="rId2"/>
     <hyperlink ref="D6" r:id="rId3" location="channel=sb&amp;newwindow=1&amp;q=hard+reset+sharp+phone&amp;rls=org.mozilla:pl:official"/>
+    <hyperlink ref="D42" r:id="rId4" display="http://webcazine.com/10104/how-to-reset-all-settings-to-factory-default-on-xiaomi-redmi/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1632,7 +1633,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1644,7 +1645,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/telefon/gotowe_fony.xlsx
+++ b/telefon/gotowe_fony.xlsx
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,9 +973,9 @@
         <v>19</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1171,9 +1171,9 @@
         <v>49</v>
       </c>
       <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
         <v>53</v>
       </c>
       <c r="C30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>54</v>
@@ -1447,13 +1447,13 @@
         <v>88</v>
       </c>
       <c r="C49" s="3">
-        <v>1</v>
-      </c>
-      <c r="D49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1461,13 +1461,13 @@
         <v>89</v>
       </c>
       <c r="C50" s="3">
-        <v>1</v>
-      </c>
-      <c r="D50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1475,13 +1475,13 @@
         <v>91</v>
       </c>
       <c r="C51" s="3">
-        <v>1</v>
-      </c>
-      <c r="D51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1531,13 +1531,13 @@
         <v>99</v>
       </c>
       <c r="C55" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -1557,13 +1557,13 @@
         <v>103</v>
       </c>
       <c r="C57" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -1595,11 +1595,17 @@
       </c>
       <c r="C61" s="8">
         <f>SUM(C2:C59)</f>
-        <v>601</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
@@ -1609,21 +1615,20 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D5" r:id="rId2"/>
     <hyperlink ref="D6" r:id="rId3" location="channel=sb&amp;newwindow=1&amp;q=hard+reset+sharp+phone&amp;rls=org.mozilla:pl:official"/>
     <hyperlink ref="D42" r:id="rId4" display="http://webcazine.com/10104/how-to-reset-all-settings-to-factory-default-on-xiaomi-redmi/"/>
+    <hyperlink ref="D13" r:id="rId5"/>
+    <hyperlink ref="D28" r:id="rId6"/>
+    <hyperlink ref="D49" r:id="rId7"/>
+    <hyperlink ref="D50" r:id="rId8"/>
+    <hyperlink ref="D51" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/telefon/gotowe_fony.xlsx
+++ b/telefon/gotowe_fony.xlsx
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,9 +959,9 @@
         <v>17</v>
       </c>
       <c r="C12" s="3">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -987,9 +987,9 @@
         <v>23</v>
       </c>
       <c r="C14" s="3">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1001,9 +1001,9 @@
         <v>25</v>
       </c>
       <c r="C15" s="3">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>30</v>
@@ -1043,9 +1043,9 @@
         <v>31</v>
       </c>
       <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
         <v>45</v>
       </c>
       <c r="C26" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>46</v>
@@ -1271,9 +1271,9 @@
         <v>63</v>
       </c>
       <c r="C36" s="3">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1405,9 +1405,9 @@
         <v>81</v>
       </c>
       <c r="C46" s="3">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       <c r="C47" s="3">
         <v>2</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="4" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1595,17 +1595,11 @@
       </c>
       <c r="C61" s="8">
         <f>SUM(C2:C59)</f>
-        <v>530</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
@@ -1615,6 +1609,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -1626,9 +1626,16 @@
     <hyperlink ref="D49" r:id="rId7"/>
     <hyperlink ref="D50" r:id="rId8"/>
     <hyperlink ref="D51" r:id="rId9"/>
+    <hyperlink ref="D36" r:id="rId10"/>
+    <hyperlink ref="D18" r:id="rId11"/>
+    <hyperlink ref="D12" r:id="rId12"/>
+    <hyperlink ref="D15" r:id="rId13"/>
+    <hyperlink ref="D14" r:id="rId14"/>
+    <hyperlink ref="D46" r:id="rId15"/>
+    <hyperlink ref="D47" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/telefon/gotowe_fony.xlsx
+++ b/telefon/gotowe_fony.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -817,17 +817,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="178.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="178.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -841,7 +841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -855,7 +855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -869,7 +869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -883,7 +883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -897,7 +897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -905,7 +905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -919,7 +919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -927,7 +927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -935,7 +935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -943,7 +943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -951,7 +951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -965,7 +965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -979,7 +979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -993,7 +993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -1099,7 +1099,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -1107,7 +1107,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -1227,7 +1227,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1235,7 +1235,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -1327,7 +1327,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1517,13 +1517,13 @@
         <v>97</v>
       </c>
       <c r="C54" s="3">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -1589,17 +1589,23 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C61" s="8">
         <f>SUM(C2:C59)</f>
-        <v>512</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
@@ -1609,12 +1615,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -1645,7 +1645,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1657,7 +1657,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/telefon/gotowe_fony.xlsx
+++ b/telefon/gotowe_fony.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -817,17 +817,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="178.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="178.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -841,7 +841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -855,7 +855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -869,7 +869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -883,7 +883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -897,7 +897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -905,7 +905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -919,7 +919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -927,7 +927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -935,7 +935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -943,7 +943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -951,7 +951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -965,7 +965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -979,7 +979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -993,7 +993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -1099,7 +1099,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -1107,7 +1107,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -1213,13 +1213,13 @@
         <v>55</v>
       </c>
       <c r="C31" s="11">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -1227,7 +1227,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1235,7 +1235,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -1327,7 +1327,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -1589,23 +1589,17 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C61" s="8">
         <f>SUM(C2:C59)</f>
-        <v>340</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
@@ -1615,6 +1609,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -1645,7 +1645,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1657,7 +1657,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/telefon/gotowe_fony.xlsx
+++ b/telefon/gotowe_fony.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Marka</t>
   </si>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t>Vtech</t>
-  </si>
-  <si>
-    <t>http://www.ehow.com/how_6955750_reset-vtech-cordless-phone.html</t>
   </si>
   <si>
     <t>Walton</t>
@@ -817,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,24 +1296,22 @@
         <v>67</v>
       </c>
       <c r="C38" s="3">
-        <v>3</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="11">
         <v>4</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1324,7 +1319,7 @@
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1332,13 +1327,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="3">
         <v>3</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1346,13 +1341,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1360,13 +1355,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" s="3">
         <v>12</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1374,13 +1369,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="3">
         <v>5</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1388,13 +1383,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C45" s="3">
         <v>19</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1402,13 +1397,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C46" s="3">
-        <v>0</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1416,13 +1411,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C47" s="3">
         <v>2</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1430,13 +1425,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C48" s="3">
         <v>2</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1444,13 +1439,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C49" s="3">
         <v>0</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1458,13 +1453,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="C50" s="3">
-        <v>0</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1472,13 +1467,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C51" s="3">
-        <v>0</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1486,13 +1481,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" s="3">
         <v>11</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1500,13 +1495,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C53" s="3">
         <v>8</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1514,13 +1509,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C54" s="3">
-        <v>0</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1528,13 +1523,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C55" s="3">
-        <v>0</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1542,11 +1537,11 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1554,13 +1549,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C57" s="3">
-        <v>0</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1568,13 +1563,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C58" s="3">
-        <v>0</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1582,24 +1577,30 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C61" s="8">
         <f>SUM(C2:C59)</f>
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
@@ -1609,12 +1610,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>

--- a/telefon/gotowe_fony.xlsx
+++ b/telefon/gotowe_fony.xlsx
@@ -815,7 +815,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +846,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
@@ -860,9 +860,9 @@
         <v>22</v>
       </c>
       <c r="C3" s="3">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1590,17 +1590,11 @@
       </c>
       <c r="C61" s="8">
         <f>SUM(C2:C59)</f>
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
@@ -1610,6 +1604,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -1628,9 +1628,10 @@
     <hyperlink ref="D14" r:id="rId14"/>
     <hyperlink ref="D46" r:id="rId15"/>
     <hyperlink ref="D47" r:id="rId16"/>
+    <hyperlink ref="D3" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>
 

--- a/telefon/gotowe_fony.xlsx
+++ b/telefon/gotowe_fony.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="126">
   <si>
     <t>Marka</t>
   </si>
@@ -346,6 +346,54 @@
   </si>
   <si>
     <t>tablet został</t>
+  </si>
+  <si>
+    <t>Gnet</t>
+  </si>
+  <si>
+    <t>Hantel</t>
+  </si>
+  <si>
+    <t>Hedy</t>
+  </si>
+  <si>
+    <t>k-touch</t>
+  </si>
+  <si>
+    <t>lenovo stare</t>
+  </si>
+  <si>
+    <t>Maxon</t>
+  </si>
+  <si>
+    <t>Mitsubishi</t>
+  </si>
+  <si>
+    <t>phoenix</t>
+  </si>
+  <si>
+    <t>Pulid</t>
+  </si>
+  <si>
+    <t>SED</t>
+  </si>
+  <si>
+    <t>Sewon</t>
+  </si>
+  <si>
+    <t>Telit</t>
+  </si>
+  <si>
+    <t>Telsda</t>
+  </si>
+  <si>
+    <t>Nie ma opisu wiec standard</t>
+  </si>
+  <si>
+    <t>To samo</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -468,7 +516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -510,6 +558,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -812,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,22 +1628,218 @@
       <c r="B59" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="3"/>
+      <c r="C59" s="3">
+        <v>80</v>
+      </c>
       <c r="D59" s="3" t="s">
         <v>107</v>
       </c>
     </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="3">
+        <v>47</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="7" t="s">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="3">
+        <v>127</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="3">
+        <v>27</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="3">
+        <v>30</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="3">
+        <v>168</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="3">
+        <v>47</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="3">
+        <v>35</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="3">
+        <v>101</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="3">
+        <v>29</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="3">
+        <v>41</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="3">
+        <v>26</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="3">
+        <v>50</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="3">
+        <v>125</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="8">
-        <f>SUM(C2:C59)</f>
-        <v>264</v>
+      <c r="C74" s="8">
+        <f>SUM(C2:C72)</f>
+        <v>1197</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
@@ -1604,12 +1849,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>

--- a/telefon/gotowe_fony.xlsx
+++ b/telefon/gotowe_fony.xlsx
@@ -419,18 +419,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -516,49 +510,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -863,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +885,7 @@
       <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -911,7 +899,7 @@
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -930,70 +918,70 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>24</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="6" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="5" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="5" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="5" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="5" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1007,7 +995,7 @@
       <c r="C12" s="3">
         <v>0</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1021,7 +1009,7 @@
       <c r="C13" s="3">
         <v>0</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1035,7 +1023,7 @@
       <c r="C14" s="3">
         <v>0</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1049,7 +1037,7 @@
       <c r="C15" s="3">
         <v>0</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1091,7 +1079,7 @@
       <c r="C18" s="3">
         <v>0</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1124,32 +1112,32 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>13</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="5" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="5" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1219,7 +1207,7 @@
       <c r="C28" s="3">
         <v>0</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1252,32 +1240,32 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="11">
-        <v>0</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="10">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="5" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="5" t="s">
+      <c r="A33" s="9"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1319,7 +1307,7 @@
       <c r="C36" s="3">
         <v>0</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1350,24 +1338,24 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="10">
         <v>4</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="5" t="s">
+      <c r="A40" s="9"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1395,7 +1383,7 @@
       <c r="C42" s="3">
         <v>1</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1451,7 +1439,7 @@
       <c r="C46" s="3">
         <v>0</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1465,7 +1453,7 @@
       <c r="C47" s="3">
         <v>2</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1493,7 +1481,7 @@
       <c r="C49" s="3">
         <v>0</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1507,7 +1495,7 @@
       <c r="C50" s="3">
         <v>0</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1521,7 +1509,7 @@
       <c r="C51" s="3">
         <v>0</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1671,7 +1659,7 @@
         <v>112</v>
       </c>
       <c r="C62" s="3">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>125</v>
@@ -1818,28 +1806,22 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="6">
         <f>SUM(C2:C72)</f>
-        <v>1197</v>
+        <v>1170</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
@@ -1849,28 +1831,15 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3" location="channel=sb&amp;newwindow=1&amp;q=hard+reset+sharp+phone&amp;rls=org.mozilla:pl:official"/>
-    <hyperlink ref="D42" r:id="rId4" display="http://webcazine.com/10104/how-to-reset-all-settings-to-factory-default-on-xiaomi-redmi/"/>
-    <hyperlink ref="D13" r:id="rId5"/>
-    <hyperlink ref="D28" r:id="rId6"/>
-    <hyperlink ref="D49" r:id="rId7"/>
-    <hyperlink ref="D50" r:id="rId8"/>
-    <hyperlink ref="D51" r:id="rId9"/>
-    <hyperlink ref="D36" r:id="rId10"/>
-    <hyperlink ref="D18" r:id="rId11"/>
-    <hyperlink ref="D12" r:id="rId12"/>
-    <hyperlink ref="D15" r:id="rId13"/>
-    <hyperlink ref="D14" r:id="rId14"/>
-    <hyperlink ref="D46" r:id="rId15"/>
-    <hyperlink ref="D47" r:id="rId16"/>
-    <hyperlink ref="D3" r:id="rId17"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/telefon/gotowe_fony.xlsx
+++ b/telefon/gotowe_fony.xlsx
@@ -852,7 +852,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +897,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
@@ -1107,7 +1107,7 @@
       <c r="C20" s="3">
         <v>14</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       <c r="C21" s="10">
         <v>13</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       <c r="A23" s="9"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
         <v>120</v>
       </c>
       <c r="C70" s="3">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>125</v>
@@ -1817,11 +1817,17 @@
       </c>
       <c r="C74" s="6">
         <f>SUM(C2:C72)</f>
-        <v>1170</v>
+        <v>1142</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
@@ -1831,15 +1837,15 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D20" r:id="rId1"/>
+    <hyperlink ref="D21" r:id="rId2"/>
+    <hyperlink ref="D22" r:id="rId3"/>
+    <hyperlink ref="D23" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/telefon/gotowe_fony.xlsx
+++ b/telefon/gotowe_fony.xlsx
@@ -852,7 +852,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,7 +1631,7 @@
         <v>110</v>
       </c>
       <c r="C60" s="3">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>123</v>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="C74" s="6">
         <f>SUM(C2:C72)</f>
-        <v>1142</v>
+        <v>1095</v>
       </c>
     </row>
   </sheetData>

--- a/telefon/gotowe_fony.xlsx
+++ b/telefon/gotowe_fony.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -851,17 +851,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="178.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="178.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -875,7 +875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -889,7 +889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -903,7 +903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -917,7 +917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -931,7 +931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -939,7 +939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -953,7 +953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -961,7 +961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -969,7 +969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -977,7 +977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -985,7 +985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -999,7 +999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1133,7 +1133,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1141,7 +1141,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -1261,7 +1261,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1269,7 +1269,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -1359,7 +1359,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -1673,13 +1673,13 @@
         <v>113</v>
       </c>
       <c r="C63" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -1729,13 +1729,13 @@
         <v>117</v>
       </c>
       <c r="C67" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -1743,13 +1743,13 @@
         <v>118</v>
       </c>
       <c r="C68" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -1805,19 +1805,19 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B74" s="5" t="s">
         <v>108</v>
       </c>
       <c r="C74" s="6">
         <f>SUM(C2:C72)</f>
-        <v>1095</v>
+        <v>935</v>
       </c>
     </row>
   </sheetData>
@@ -1855,7 +1855,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1867,7 +1867,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/telefon/gotowe_fony.xlsx
+++ b/telefon/gotowe_fony.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -851,17 +851,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="178.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="178.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -875,7 +875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -889,7 +889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -903,7 +903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -917,7 +917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -931,7 +931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -939,7 +939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -953,7 +953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -961,7 +961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -969,7 +969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -977,7 +977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -985,7 +985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -999,7 +999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1133,7 +1133,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1141,7 +1141,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -1261,7 +1261,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1269,7 +1269,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -1359,7 +1359,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -1805,13 +1805,13 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
         <v>108</v>
       </c>
@@ -1822,12 +1822,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
@@ -1837,6 +1831,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D20" r:id="rId1"/>
@@ -1855,7 +1855,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1867,7 +1867,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/telefon/gotowe_fony.xlsx
+++ b/telefon/gotowe_fony.xlsx
@@ -852,7 +852,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,7 +1757,7 @@
         <v>119</v>
       </c>
       <c r="C69" s="3">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>125</v>
@@ -1817,11 +1817,17 @@
       </c>
       <c r="C74" s="6">
         <f>SUM(C2:C72)</f>
-        <v>935</v>
+        <v>894</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
@@ -1831,12 +1837,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D20" r:id="rId1"/>

--- a/telefon/gotowe_fony.xlsx
+++ b/telefon/gotowe_fony.xlsx
@@ -851,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1715,7 +1715,7 @@
         <v>116</v>
       </c>
       <c r="C66" s="3">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>125</v>
@@ -1785,7 +1785,7 @@
         <v>121</v>
       </c>
       <c r="C71" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>125</v>
@@ -1817,17 +1817,11 @@
       </c>
       <c r="C74" s="6">
         <f>SUM(C2:C72)</f>
-        <v>894</v>
+        <v>809</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
@@ -1837,6 +1831,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D20" r:id="rId1"/>

--- a/telefon/gotowe_fony.xlsx
+++ b/telefon/gotowe_fony.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="127">
   <si>
     <t>Marka</t>
   </si>
@@ -363,9 +363,6 @@
     <t>lenovo stare</t>
   </si>
   <si>
-    <t>Maxon</t>
-  </si>
-  <si>
     <t>Mitsubishi</t>
   </si>
   <si>
@@ -394,6 +391,12 @@
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <t>Alcatele i Xperie</t>
+  </si>
+  <si>
+    <t>lots</t>
   </si>
 </sst>
 </file>
@@ -851,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -1648,7 +1651,7 @@
         <v>127</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -1662,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -1676,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -1690,7 +1693,7 @@
         <v>168</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -1698,13 +1701,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C65" s="3">
-        <v>47</v>
+        <v>125</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -1712,13 +1715,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C66" s="3">
         <v>0</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -1726,13 +1729,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C67" s="3">
         <v>0</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -1740,13 +1743,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C68" s="3">
         <v>0</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -1754,13 +1757,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C69" s="3">
         <v>0</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -1768,13 +1771,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C70" s="3">
         <v>0</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -1782,13 +1785,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C71" s="3">
         <v>0</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -1796,13 +1799,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C72" s="3">
         <v>125</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -1817,7 +1820,7 @@
       </c>
       <c r="C74" s="6">
         <f>SUM(C2:C72)</f>
-        <v>809</v>
+        <v>762</v>
       </c>
     </row>
   </sheetData>

--- a/telefon/gotowe_fony.xlsx
+++ b/telefon/gotowe_fony.xlsx
@@ -855,7 +855,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,7 +1648,7 @@
         <v>111</v>
       </c>
       <c r="C61" s="3">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>123</v>
@@ -1820,11 +1820,17 @@
       </c>
       <c r="C74" s="6">
         <f>SUM(C2:C72)</f>
-        <v>762</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
@@ -1834,12 +1840,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D20" r:id="rId1"/>

--- a/telefon/gotowe_fony.xlsx
+++ b/telefon/gotowe_fony.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -855,16 +855,16 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="178.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="178.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -878,7 +878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -892,7 +892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -906,7 +906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -920,7 +920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -934,7 +934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -942,7 +942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -956,7 +956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -964,7 +964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -972,7 +972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -980,7 +980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -988,7 +988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1136,7 +1136,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1144,7 +1144,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -1264,7 +1264,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1272,7 +1272,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -1362,7 +1362,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -1802,35 +1802,29 @@
         <v>121</v>
       </c>
       <c r="C72" s="3">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B74" s="5" t="s">
         <v>108</v>
       </c>
       <c r="C74" s="6">
         <f>SUM(C2:C72)</f>
-        <v>635</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
@@ -1840,6 +1834,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D20" r:id="rId1"/>
@@ -1858,7 +1858,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1870,7 +1870,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/telefon/gotowe_fony.xlsx
+++ b/telefon/gotowe_fony.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -854,17 +854,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="178.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="178.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -878,7 +878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -892,7 +892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -906,7 +906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -920,7 +920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -934,7 +934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -942,7 +942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -956,7 +956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -964,7 +964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -972,7 +972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -980,7 +980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -988,7 +988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1136,7 +1136,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1144,7 +1144,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -1264,7 +1264,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1272,7 +1272,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -1362,7 +1362,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -1690,13 +1690,13 @@
         <v>114</v>
       </c>
       <c r="C64" s="3">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -1808,23 +1808,29 @@
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
         <v>108</v>
       </c>
       <c r="C74" s="6">
         <f>SUM(C2:C72)</f>
-        <v>510</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
@@ -1834,12 +1840,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D20" r:id="rId1"/>
@@ -1858,7 +1858,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1870,7 +1870,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/telefon/gotowe_fony.xlsx
+++ b/telefon/gotowe_fony.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -854,17 +854,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="178.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="178.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -878,7 +878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -892,7 +892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -906,7 +906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -920,7 +920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -934,7 +934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -942,7 +942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -956,7 +956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -964,7 +964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -972,7 +972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -980,7 +980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -988,7 +988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1136,7 +1136,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1144,7 +1144,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1152,13 +1152,13 @@
         <v>42</v>
       </c>
       <c r="C24" s="3">
-        <v>11</v>
-      </c>
-      <c r="D24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -1264,7 +1264,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1272,7 +1272,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1294,13 +1294,13 @@
         <v>61</v>
       </c>
       <c r="C35" s="3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -1362,7 +1362,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1400,11 +1400,11 @@
       <c r="C43" s="3">
         <v>12</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1428,11 +1428,11 @@
       <c r="C45" s="3">
         <v>19</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1524,13 +1524,13 @@
         <v>92</v>
       </c>
       <c r="C52" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1540,11 +1540,11 @@
       <c r="C53" s="3">
         <v>8</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -1620,13 +1620,13 @@
         <v>106</v>
       </c>
       <c r="C59" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -1808,29 +1808,23 @@
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B74" s="5" t="s">
         <v>108</v>
       </c>
       <c r="C74" s="6">
         <f>SUM(C2:C72)</f>
-        <v>342</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
@@ -1840,15 +1834,25 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D20" r:id="rId1"/>
     <hyperlink ref="D21" r:id="rId2"/>
     <hyperlink ref="D22" r:id="rId3"/>
     <hyperlink ref="D23" r:id="rId4"/>
+    <hyperlink ref="D24" r:id="rId5"/>
+    <hyperlink ref="D43" r:id="rId6"/>
+    <hyperlink ref="D45" r:id="rId7"/>
+    <hyperlink ref="D53" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1858,7 +1862,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1870,7 +1874,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/telefon/gotowe_fony.xlsx
+++ b/telefon/gotowe_fony.xlsx
@@ -403,7 +403,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +416,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -513,7 +521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -548,6 +556,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -855,7 +875,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,7 +947,7 @@
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="15">
         <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -937,7 +957,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
@@ -949,7 +969,7 @@
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="15">
         <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -959,7 +979,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
@@ -967,7 +987,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
@@ -975,7 +995,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
@@ -983,7 +1003,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1051,7 +1071,7 @@
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="14">
         <v>48</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1086,14 +1106,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="14">
         <v>5</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -1107,7 +1127,7 @@
       <c r="B20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="14">
         <v>14</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1121,7 +1141,7 @@
       <c r="B21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="15">
         <v>13</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -1131,7 +1151,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="4" t="s">
         <v>39</v>
       </c>
@@ -1139,7 +1159,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="4" t="s">
         <v>40</v>
       </c>
@@ -1158,14 +1178,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="14">
         <v>5</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -1186,14 +1206,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="14">
         <v>7</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -1214,14 +1234,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="14">
         <v>5</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -1321,7 +1341,7 @@
       <c r="B37" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="14">
         <v>9</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -1347,7 +1367,7 @@
       <c r="B39" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="15">
         <v>4</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -1357,7 +1377,7 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="3" t="s">
         <v>70</v>
       </c>
@@ -1369,7 +1389,7 @@
       <c r="B41" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="14">
         <v>3</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -1383,7 +1403,7 @@
       <c r="B42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="14">
         <v>1</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -1397,7 +1417,7 @@
       <c r="B43" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="14">
         <v>12</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -1411,7 +1431,7 @@
       <c r="B44" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="14">
         <v>5</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -1426,7 +1446,7 @@
         <v>79</v>
       </c>
       <c r="C45" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>78</v>
@@ -1453,7 +1473,7 @@
       <c r="B47" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="14">
         <v>2</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -1467,7 +1487,7 @@
       <c r="B48" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="14">
         <v>2</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -1537,7 +1557,7 @@
       <c r="B53" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="14">
         <v>8</v>
       </c>
       <c r="D53" s="4" t="s">
@@ -1703,7 +1723,7 @@
       <c r="B65" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="14" t="s">
         <v>126</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -1820,11 +1840,17 @@
       </c>
       <c r="C74" s="6">
         <f>SUM(C2:C72)</f>
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
@@ -1834,12 +1860,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D20" r:id="rId1"/>

--- a/telefon/gotowe_fony.xlsx
+++ b/telefon/gotowe_fony.xlsx
@@ -521,7 +521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -540,6 +540,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -552,19 +558,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -874,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -941,13 +944,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -955,21 +958,21 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="16"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -977,33 +980,33 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="17"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="17"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="16"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1071,7 +1074,7 @@
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="8">
         <v>48</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1113,8 +1116,8 @@
       <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="14">
-        <v>5</v>
+      <c r="C19" s="9">
+        <v>0</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>34</v>
@@ -1127,21 +1130,21 @@
       <c r="B20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="14">
-        <v>14</v>
+      <c r="C20" s="9">
+        <v>0</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <v>13</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -1149,17 +1152,17 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="17"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="16"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="4" t="s">
         <v>40</v>
       </c>
@@ -1185,7 +1188,7 @@
       <c r="B25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="8">
         <v>5</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -1213,8 +1216,8 @@
       <c r="B27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="14">
-        <v>7</v>
+      <c r="C27" s="9">
+        <v>0</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>48</v>
@@ -1241,7 +1244,7 @@
       <c r="B29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="8">
         <v>5</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -1263,13 +1266,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+      <c r="A31" s="10">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="12">
         <v>0</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -1277,17 +1280,17 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="3" t="s">
         <v>58</v>
       </c>
@@ -1341,7 +1344,7 @@
       <c r="B37" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="8">
         <v>9</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -1361,13 +1364,13 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="8">
+      <c r="A39" s="10">
         <v>38</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="14">
         <v>4</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -1375,9 +1378,9 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="16"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="3" t="s">
         <v>70</v>
       </c>
@@ -1389,7 +1392,7 @@
       <c r="B41" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="8">
         <v>3</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -1403,7 +1406,7 @@
       <c r="B42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="8">
         <v>1</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -1417,7 +1420,7 @@
       <c r="B43" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="8">
         <v>12</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -1431,7 +1434,7 @@
       <c r="B44" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="8">
         <v>5</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -1473,10 +1476,10 @@
       <c r="B47" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="8">
         <v>2</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1487,10 +1490,10 @@
       <c r="B48" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="8">
         <v>2</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="4" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1557,8 +1560,8 @@
       <c r="B53" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="14">
-        <v>8</v>
+      <c r="C53" s="9">
+        <v>0</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>95</v>
@@ -1723,7 +1726,7 @@
       <c r="B65" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="8" t="s">
         <v>126</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -1840,7 +1843,7 @@
       </c>
       <c r="C74" s="6">
         <f>SUM(C2:C72)</f>
-        <v>188</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1870,9 +1873,11 @@
     <hyperlink ref="D43" r:id="rId6"/>
     <hyperlink ref="D45" r:id="rId7"/>
     <hyperlink ref="D53" r:id="rId8"/>
+    <hyperlink ref="D47" r:id="rId9"/>
+    <hyperlink ref="D48" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/telefon/gotowe_fony.xlsx
+++ b/telefon/gotowe_fony.xlsx
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1477,7 +1477,7 @@
         <v>82</v>
       </c>
       <c r="C47" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>83</v>
@@ -1843,17 +1843,11 @@
       </c>
       <c r="C74" s="6">
         <f>SUM(C2:C72)</f>
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
@@ -1863,6 +1857,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D20" r:id="rId1"/>
